--- a/approach2_exp/results/jdk_1.xlsx
+++ b/approach2_exp/results/jdk_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,12 +458,11 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>75.77</v>
+        <v>76.76000000000001</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-The candidate has demonstrated an impressive range of skills, including MongoDB, ReactJS, JavaScript, Web Development, NodeJS, Django, Python, Computer Vision, and Image Processing, which are essential for the job position. They have also completed projects using these skills, such as the Literature Society IITJ Website, LLMGuard, and CloudPhysician's Vital Extraction Challenge, which demonstrate their expertise and aptitude for the job. Hence, a score of 75.77 is a fair evaluation.</t>
+          <t xml:space="preserve"> The candidate has strong technical skills, experience and knowledge in MERN Stack, ReactJS, Django, Python, JavaScript and Computer Vision, Image Processing. The projects they have worked on demonstrate their competency and the score of 76.76 reflects this.</t>
         </is>
       </c>
     </row>
@@ -475,11 +474,28 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>91.39</v>
+        <v>91.87</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The candidate demonstrates an excellent level of knowledge in the technologies required for the job (MongoDB, ReactJS, JavaScript, Web Development, NodeJS, HTML, CSS, Socket.IO, WebRTC, Flutter, Dart, Firebase) which is reflected in the score of 91.39. They also have experience with related technologies, such as Docker, and have worked on a variety of projects for different clients.</t>
+          <t xml:space="preserve">
+The candidate has the perfect blend of technical skills and project experience to fill the role of SDE Intern. They have used the mentioned technologies in their projects and have demonstrated the ability to develop quality web/mobile applications. Their score of 91.87 reflects their aptitude for this role.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>80.26000000000001</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The applicant has a strong background in MERN Stack, Django Rest Framework, ReactJS, PyTorch, Tensorflow, Keras, and Sklearn, which are essential skills for the SDE Intern role. The candidate has experience with building websites, post-processing of large language models, and multi-model data analysis for annotation of human activities, demonstrating their aptness for the job and resulting in a score of 80.26.</t>
         </is>
       </c>
     </row>

--- a/approach2_exp/results/jdk_1.xlsx
+++ b/approach2_exp/results/jdk_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>project_count</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>reason</t>
         </is>
       </c>
@@ -458,11 +463,15 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>76.76000000000001</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The candidate has strong technical skills, experience and knowledge in MERN Stack, ReactJS, Django, Python, JavaScript and Computer Vision, Image Processing. The projects they have worked on demonstrate their competency and the score of 76.76 reflects this.</t>
+        <v>73.92</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The candidate has a score of 73.92 as they have experience in the relevant technologies required for the job, such as MongoDB, ReactJS, JavaScript, Web Development, NodeJS, as well as other related technologies such as Python, Django, Computer Vision, Image Processing. Their projects demonstrate their ability to work on developing web/mobile applications, feature development, scalability, and product enhancement.</t>
         </is>
       </c>
     </row>
@@ -474,12 +483,15 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>91.87</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-The candidate has the perfect blend of technical skills and project experience to fill the role of SDE Intern. They have used the mentioned technologies in their projects and have demonstrated the ability to develop quality web/mobile applications. Their score of 91.87 reflects their aptitude for this role.</t>
+        <v>90.47</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Reasoning: The candidate has demonstrated strong expertise in technologies relevant to the job description, such as MongoDB, ReactJS, JavaScript, Web Development, NodeJS, HTML, CSS, Socket.IO, WebRTC, Flutter, Dart, Firebase. Their projects also showcase a good understanding of the technologies and how to use them in combination to develop web/mobile applications. The candidate's score reflects their ability to develop high-quality applications in the aforementioned technologies.</t>
         </is>
       </c>
     </row>
@@ -491,11 +503,15 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>80.26000000000001</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The applicant has a strong background in MERN Stack, Django Rest Framework, ReactJS, PyTorch, Tensorflow, Keras, and Sklearn, which are essential skills for the SDE Intern role. The candidate has experience with building websites, post-processing of large language models, and multi-model data analysis for annotation of human activities, demonstrating their aptness for the job and resulting in a score of 80.26.</t>
+        <v>78.58</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Reasoning: The candidate has demonstrated technical proficiency in MongoDB, ReactJS, JavaScript, Web Development, NodeJS, Django Rest Framework, Pytorch, Tensorflow, Keras, and Sklearn, which are the skills required for the job. The projects showcase the candidate's ability to design and develop high-quality web/mobile applications, integrate machine learning models with user interfaces, and develop automated pipelines for multi-model data analysis. All these qualities make the candidate a good fit for the job, justifying their score of 78.58.</t>
         </is>
       </c>
     </row>

--- a/approach2_exp/results/jdk_1.xlsx
+++ b/approach2_exp/results/jdk_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,10 +460,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>73.92</v>
+        <v>85.48</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -471,7 +471,7 @@
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-The candidate has a score of 73.92 as they have experience in the relevant technologies required for the job, such as MongoDB, ReactJS, JavaScript, Web Development, NodeJS, as well as other related technologies such as Python, Django, Computer Vision, Image Processing. Their projects demonstrate their ability to work on developing web/mobile applications, feature development, scalability, and product enhancement.</t>
+Reasoning: The candidate has a strong skillset related to the job description, having worked with the MERN stack, ReactJS, NodeJS, ExpressJS, Socket.IO, WebRTC, HTML, CSS, and JS. The projects they have worked on demonstrate their ability to create and design web/mobile applications, manage data, and develop features with scalability. The score of 85.48 reflects their aptitude for the job.</t>
         </is>
       </c>
     </row>
@@ -480,38 +480,18 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>90.47</v>
+        <v>74.48</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 
-Reasoning: The candidate has demonstrated strong expertise in technologies relevant to the job description, such as MongoDB, ReactJS, JavaScript, Web Development, NodeJS, HTML, CSS, Socket.IO, WebRTC, Flutter, Dart, Firebase. Their projects also showcase a good understanding of the technologies and how to use them in combination to develop web/mobile applications. The candidate's score reflects their ability to develop high-quality applications in the aforementioned technologies.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>78.58</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t xml:space="preserve">
-Reasoning: The candidate has demonstrated technical proficiency in MongoDB, ReactJS, JavaScript, Web Development, NodeJS, Django Rest Framework, Pytorch, Tensorflow, Keras, and Sklearn, which are the skills required for the job. The projects showcase the candidate's ability to design and develop high-quality web/mobile applications, integrate machine learning models with user interfaces, and develop automated pipelines for multi-model data analysis. All these qualities make the candidate a good fit for the job, justifying their score of 78.58.</t>
+Reasoning: The candidate has demonstrated excellent technical skills and knowledge of the MERN stack, Django Rest Framework, Pytorch, Tensorflow, Keras, and Sklearn. He has also shown experience in developing web/mobile applications, library management systems, user interfaces, and machine learning models. With these skills, he is well suited for the job and has been given a score of 74.48.</t>
         </is>
       </c>
     </row>

--- a/approach2_exp/results/jdk_1.xlsx
+++ b/approach2_exp/results/jdk_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,64 +434,47 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>final_score</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>project_count</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>reason</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>85.48</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
+        <v>75.56</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Reasoning: The candidate has a strong skillset related to the job description, having worked with the MERN stack, ReactJS, NodeJS, ExpressJS, Socket.IO, WebRTC, HTML, CSS, and JS. The projects they have worked on demonstrate their ability to create and design web/mobile applications, manage data, and develop features with scalability. The score of 85.48 reflects their aptitude for the job.</t>
+Reasoning: The candidate has a score of 75.56 due to their strong technical skills in the MERN stack and related technologies, as well as their portfolio of projects which demonstrate their knowledge in web development, image processing, and computer vision. The projects showcase their ability to develop highly functional applications and systems.</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>74.48</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
+        <v>88.66</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Reasoning: The candidate has demonstrated excellent technical skills and knowledge of the MERN stack, Django Rest Framework, Pytorch, Tensorflow, Keras, and Sklearn. He has also shown experience in developing web/mobile applications, library management systems, user interfaces, and machine learning models. With these skills, he is well suited for the job and has been given a score of 74.48.</t>
+Reasoning: The candidate has demonstrated proficiency in MERN Stack development and the required skills of MongoDB, ReactJS, JavaScript, Web Development, and NodeJS for the SDE Intern role. Their projects demonstrate an advanced understanding of web development, app development, and game development. These skills, combined with the candidate's ability to quickly learn and apply new technologies, have earned them an impressive score of 88.66.</t>
         </is>
       </c>
     </row>

--- a/approach2_exp/results/jdk_1.xlsx
+++ b/approach2_exp/results/jdk_1.xlsx
@@ -1,43 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>final_score</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>personality_score</t>
+  </si>
+  <si>
+    <t>personality_reason</t>
+  </si>
+  <si>
+    <t>The candidate has a moderate score as they have experience in required skills such as MongoDB, ReactJS, JavaScript, Web Development, and NodeJS. However, their projects have focused on different areas such as language models, literature society management, and data annotation instead of web/mobile application development. This suggests they may not have enough practical experience in the required technologies for the SDE Intern position.</t>
+  </si>
+  <si>
+    <t>The applicant has shown a strong willingness to come to Japan, citing their interest in the country's AI field and work culture. They are open to working in different countries, including Japan. Additionally, they express the desire to contribute to cutting-edge technologies and learn new skills during their internship. They also have a unique background that sets them apart. However, there is room for improvement in terms of their adaptability and preference for working alone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The candidate has been given a high score due to their extensive experience in web development and strong skills in MongoDB, ReactJS, JavaScript, NodeJS, and other relevant technologies. Their projects, including SHAMIYANA APP and RAPID, demonstrate their ability to design and develop high-quality applications, while their experience with SMART SENSING MIDDLEWARE showcases their proficiency in ReactJS and web development. Overall, the candidate's skills and experience align well with the job requirements for SDE Intern.</t>
+  </si>
+  <si>
+    <t>The applicant demonstrates a strong willingness to come to Japan, as they express a deep interest in the field of AI and the work culture of Japan. They also mention their willingness to adapt to a new culture and even learn a new language. Additionally, their career plan aligns with the company's focus on AI and backend development. Their expectation from the company also indicates a genuine interest in working on projects related to their chosen field. Furthermore, their strengths in grasping new concepts and working well in a team, along with their ability to bridge the gap between technical and creative aspects, showcase their alignment with the soft skills the company is looking for. The only area of improvement is their preference to not work alone, but they mention taking steps to address this by trying to work alone to learn that skill. Overall, the applicant demonstrates both a strong willingness and a compatible personality to work in Japan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+This candidate has been given a high score as they have relevant experience in MERN stack development and have worked on projects related to web development and computer vision, using technologies like Python, PyTorch, and ReactJS. They also have experience in implementing machine learning models in a real-world application. These skills align with the job description and showcase their aptitude for the SDE Intern position.</t>
+  </si>
+  <si>
+    <t>The applicant shows a strong willingness to come to Japan and work for the company. They are deeply interested in the field of AI, which is one of the leading areas in Japan. They also express a fascination for the work culture in Japan and their desire to be a part of it. The applicant is open to working in different countries, including Japan. They mention their willingness to adapt to new cultures and even learn a new language while working in Japan. Overall, their answers demonstrate a strong desire to come to Japan and work for the company.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,94 +94,82 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="10">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="E1:E4" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
+  <autoFilter ref="E1:E4"/>
+  <tableColumns count="1">
+    <tableColumn name="personality_reason" id="1" totalsRowLabel="Total"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -141,10 +177,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -182,69 +218,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -268,54 +306,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -325,7 +362,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -334,7 +371,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -343,7 +380,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -351,10 +388,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -383,7 +420,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -396,13 +433,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -420,65 +456,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="130.005" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>final_score</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>reason</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="26.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>75.56</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Reasoning: The candidate has a score of 75.56 due to their strong technical skills in the MERN stack and related technologies, as well as their portfolio of projects which demonstrate their knowledge in web development, image processing, and computer vision. The projects showcase their ability to develop highly functional applications and systems.</t>
-        </is>
+      <c r="B2" s="5">
+        <v>69.34</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="39.75">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>88.66</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Reasoning: The candidate has demonstrated proficiency in MERN Stack development and the required skills of MongoDB, ReactJS, JavaScript, Web Development, and NodeJS for the SDE Intern role. Their projects demonstrate an advanced understanding of web development, app development, and game development. These skills, combined with the candidate's ability to quickly learn and apply new technologies, have earned them an impressive score of 88.66.</t>
-        </is>
+      <c r="B3" s="5">
+        <v>88.1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="39.75">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>82.41</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>